--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.CodeSystem.Query.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.CodeSystem.Query.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,10 +271,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -293,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -703,6 +699,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2482,16 +2482,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2516,28 +2516,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2587,13 +2587,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2633,25 +2633,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2702,19 +2702,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2748,28 +2748,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2819,19 +2819,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2865,7 +2865,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2877,16 +2877,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2912,43 +2912,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2971,18 +2971,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2994,16 +2994,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3053,25 +3053,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3088,11 +3088,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3111,16 +3111,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3170,7 +3170,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3188,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3205,11 +3205,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3228,16 +3228,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3287,7 +3287,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3299,13 +3299,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3322,11 +3322,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3339,25 +3339,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3406,7 +3406,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3418,13 +3418,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3449,32 +3449,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3484,73 +3484,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3578,20 +3578,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3616,29 +3616,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3650,19 +3650,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3686,39 +3686,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3733,14 +3733,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3769,19 +3769,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3805,39 +3805,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3852,14 +3852,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3888,19 +3888,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3911,10 +3911,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
@@ -3924,39 +3924,39 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -3971,14 +3971,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4007,19 +4007,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4030,42 +4030,42 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4075,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>78</v>
@@ -4090,14 +4090,14 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4126,19 +4126,19 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4160,29 +4160,29 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4192,70 +4192,70 @@
         <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
+      <c r="X17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4277,7 +4277,7 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -4289,16 +4289,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4348,42 +4348,42 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4391,34 +4391,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4467,42 +4467,42 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4513,28 +4513,28 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4560,55 +4560,55 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4630,19 +4630,19 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>216</v>
@@ -4699,19 +4699,19 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4723,7 +4723,7 @@
         <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4754,7 +4754,7 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>221</v>
@@ -4792,7 +4792,7 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>225</v>
@@ -4828,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>227</v>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>80</v>
@@ -4930,13 +4930,13 @@
         <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4945,7 +4945,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>241</v>
@@ -4979,7 +4979,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4991,7 +4991,7 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>248</v>
@@ -5054,7 +5054,7 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5106,16 +5106,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5177,7 +5177,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5217,13 +5217,13 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>257</v>
@@ -5232,10 +5232,10 @@
         <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5296,13 +5296,13 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -5330,7 +5330,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5375,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>263</v>
@@ -5405,13 +5405,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>265</v>
@@ -5530,7 +5530,7 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5564,16 +5564,16 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>282</v>
@@ -5643,13 +5643,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>287</v>
@@ -5683,7 +5683,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5695,7 +5695,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>293</v>
@@ -5760,13 +5760,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5800,7 +5800,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5812,7 +5812,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>299</v>
@@ -5877,13 +5877,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5914,19 +5914,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>305</v>
@@ -5993,16 +5993,16 @@
         <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6036,7 +6036,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6111,13 +6111,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>316</v>
@@ -6163,7 +6163,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>322</v>
@@ -6236,7 +6236,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6270,7 +6270,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6282,7 +6282,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>330</v>
@@ -6317,7 +6317,7 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X35" t="s" s="2">
         <v>333</v>
@@ -6347,13 +6347,13 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6387,7 +6387,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6462,13 +6462,13 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6502,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6514,7 +6514,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>248</v>
@@ -6577,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6629,16 +6629,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6700,7 +6700,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6740,13 +6740,13 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>257</v>
@@ -6755,10 +6755,10 @@
         <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6819,13 +6819,13 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6853,7 +6853,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6865,7 +6865,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>345</v>
@@ -6932,13 +6932,13 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6972,7 +6972,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6984,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>353</v>
@@ -7019,7 +7019,7 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>356</v>
@@ -7049,13 +7049,13 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7136,7 +7136,7 @@
         <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>225</v>
@@ -7172,7 +7172,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7205,10 +7205,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7284,7 +7284,7 @@
         <v>233</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7293,7 +7293,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>241</v>
@@ -7327,7 +7327,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7339,7 +7339,7 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>248</v>
@@ -7402,7 +7402,7 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7454,16 +7454,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7525,7 +7525,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7565,13 +7565,13 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>257</v>
@@ -7580,10 +7580,10 @@
         <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7644,13 +7644,13 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7675,10 +7675,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7723,7 +7723,7 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>263</v>
@@ -7753,13 +7753,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>265</v>
@@ -7878,7 +7878,7 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7909,19 +7909,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>282</v>
@@ -7991,13 +7991,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>287</v>
@@ -8031,7 +8031,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8043,7 +8043,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>293</v>
@@ -8108,13 +8108,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8148,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8160,7 +8160,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>299</v>
@@ -8225,13 +8225,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8262,19 +8262,19 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>305</v>
@@ -8341,16 +8341,16 @@
         <v>304</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8384,7 +8384,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8459,13 +8459,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>316</v>
@@ -8511,7 +8511,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>322</v>
@@ -8584,7 +8584,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8630,7 +8630,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>330</v>
@@ -8665,7 +8665,7 @@
         <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X55" t="s" s="2">
         <v>333</v>
@@ -8695,13 +8695,13 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8732,10 +8732,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8810,13 +8810,13 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8850,7 +8850,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8862,7 +8862,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>248</v>
@@ -8925,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8977,16 +8977,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9048,7 +9048,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9088,13 +9088,13 @@
         <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>257</v>
@@ -9103,10 +9103,10 @@
         <v>258</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -9167,13 +9167,13 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -9201,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9213,7 +9213,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>345</v>
@@ -9280,13 +9280,13 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9320,7 +9320,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9332,7 +9332,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>353</v>
@@ -9367,7 +9367,7 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>356</v>
@@ -9397,13 +9397,13 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9484,7 +9484,7 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>225</v>
@@ -9520,7 +9520,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9553,10 +9553,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9632,7 +9632,7 @@
         <v>233</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9641,7 +9641,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>241</v>
@@ -9675,7 +9675,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9687,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>248</v>
@@ -9750,7 +9750,7 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9802,16 +9802,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9873,7 +9873,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9913,13 +9913,13 @@
         <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>257</v>
@@ -9928,10 +9928,10 @@
         <v>258</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9992,13 +9992,13 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -10023,10 +10023,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -10071,7 +10071,7 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X67" t="s" s="2">
         <v>263</v>
@@ -10101,13 +10101,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>265</v>
@@ -10226,7 +10226,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10257,19 +10257,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>282</v>
@@ -10339,13 +10339,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>287</v>
@@ -10379,7 +10379,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10391,7 +10391,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>293</v>
@@ -10456,13 +10456,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10496,7 +10496,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10508,7 +10508,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>299</v>
@@ -10573,13 +10573,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10610,19 +10610,19 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>305</v>
@@ -10689,16 +10689,16 @@
         <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10732,7 +10732,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10807,13 +10807,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>316</v>
@@ -10859,7 +10859,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>322</v>
@@ -10932,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10978,7 +10978,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>330</v>
@@ -11013,7 +11013,7 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X75" t="s" s="2">
         <v>333</v>
@@ -11043,13 +11043,13 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11080,10 +11080,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11158,13 +11158,13 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11198,7 +11198,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11210,7 +11210,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>248</v>
@@ -11273,7 +11273,7 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11325,16 +11325,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11396,7 +11396,7 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11436,13 +11436,13 @@
         <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>257</v>
@@ -11451,10 +11451,10 @@
         <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11515,13 +11515,13 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -11549,7 +11549,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11561,7 +11561,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>345</v>
@@ -11628,13 +11628,13 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11668,7 +11668,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11680,7 +11680,7 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>353</v>
@@ -11715,7 +11715,7 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>356</v>
@@ -11745,13 +11745,13 @@
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11832,7 +11832,7 @@
         <v>78</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X82" t="s" s="2">
         <v>225</v>
@@ -11868,7 +11868,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11904,7 +11904,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11980,7 +11980,7 @@
         <v>233</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11989,7 +11989,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>241</v>
@@ -12023,7 +12023,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -12035,7 +12035,7 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>248</v>
@@ -12098,7 +12098,7 @@
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12150,16 +12150,16 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12221,7 +12221,7 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
@@ -12261,13 +12261,13 @@
         <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>257</v>
@@ -12276,10 +12276,10 @@
         <v>258</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -12340,13 +12340,13 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -12371,10 +12371,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12419,7 +12419,7 @@
         <v>78</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X87" t="s" s="2">
         <v>263</v>
@@ -12449,13 +12449,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>265</v>
@@ -12492,7 +12492,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12574,7 +12574,7 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12605,19 +12605,19 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>282</v>
@@ -12687,13 +12687,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>287</v>
@@ -12727,7 +12727,7 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12739,7 +12739,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>293</v>
@@ -12804,13 +12804,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12844,11 +12844,11 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>299</v>
@@ -12921,13 +12921,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12958,19 +12958,19 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>305</v>
@@ -13037,16 +13037,16 @@
         <v>304</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13080,7 +13080,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>78</v>
@@ -13155,13 +13155,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>316</v>
@@ -13207,7 +13207,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>322</v>
@@ -13280,7 +13280,7 @@
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13326,7 +13326,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>330</v>
@@ -13361,7 +13361,7 @@
         <v>78</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>333</v>
@@ -13391,13 +13391,13 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13506,13 +13506,13 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13546,7 +13546,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13558,7 +13558,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>248</v>
@@ -13621,7 +13621,7 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13673,16 +13673,16 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13744,7 +13744,7 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13784,13 +13784,13 @@
         <v>78</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>257</v>
@@ -13799,10 +13799,10 @@
         <v>258</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>78</v>
@@ -13863,13 +13863,13 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>78</v>
@@ -13897,7 +13897,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13909,7 +13909,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>345</v>
@@ -13976,13 +13976,13 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14016,7 +14016,7 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>78</v>
@@ -14028,7 +14028,7 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>353</v>
@@ -14063,7 +14063,7 @@
         <v>78</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>356</v>
@@ -14093,13 +14093,13 @@
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14136,7 +14136,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14180,7 +14180,7 @@
         <v>78</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X102" t="s" s="2">
         <v>225</v>
@@ -14216,7 +14216,7 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14247,13 +14247,13 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -14326,16 +14326,16 @@
         <v>372</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14369,7 +14369,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14381,7 +14381,7 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>248</v>
@@ -14444,7 +14444,7 @@
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14496,16 +14496,16 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14567,7 +14567,7 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14607,13 +14607,13 @@
         <v>78</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>257</v>
@@ -14622,10 +14622,10 @@
         <v>258</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>78</v>
@@ -14686,13 +14686,13 @@
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>78</v>
@@ -14720,7 +14720,7 @@
         <v>79</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>78</v>
@@ -14732,7 +14732,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>384</v>
@@ -14797,13 +14797,13 @@
         <v>79</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14834,19 +14834,19 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>282</v>
@@ -14911,16 +14911,16 @@
         <v>389</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -14966,7 +14966,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>396</v>
@@ -15001,7 +15001,7 @@
         <v>78</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X109" t="s" s="2">
         <v>399</v>
@@ -15037,7 +15037,7 @@
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>80</v>
@@ -15139,7 +15139,7 @@
         <v>78</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>403</v>
@@ -15166,7 +15166,7 @@
         <v>411</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>412</v>
@@ -15188,7 +15188,7 @@
         <v>79</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>78</v>
@@ -15200,7 +15200,7 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>248</v>
@@ -15263,7 +15263,7 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15315,16 +15315,16 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15386,7 +15386,7 @@
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15426,13 +15426,13 @@
         <v>78</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>257</v>
@@ -15441,10 +15441,10 @@
         <v>258</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>78</v>
@@ -15505,13 +15505,13 @@
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>78</v>
@@ -15539,16 +15539,16 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>418</v>
@@ -15614,13 +15614,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15632,7 +15632,7 @@
         <v>421</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15654,7 +15654,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15666,7 +15666,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>424</v>
@@ -15703,7 +15703,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>428</v>
@@ -15733,13 +15733,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15751,7 +15751,7 @@
         <v>431</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>432</v>
@@ -15773,7 +15773,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15785,7 +15785,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>435</v>
@@ -15820,7 +15820,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>438</v>
@@ -15850,13 +15850,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15890,7 +15890,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15902,7 +15902,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>445</v>
@@ -15939,7 +15939,7 @@
         <v>78</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X117" t="s" s="2">
         <v>446</v>
@@ -15969,13 +15969,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16021,7 +16021,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>454</v>
@@ -16058,7 +16058,7 @@
         <v>78</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>458</v>
@@ -16094,7 +16094,7 @@
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16128,19 +16128,19 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>463</v>
@@ -16207,13 +16207,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16247,7 +16247,7 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16259,7 +16259,7 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>472</v>
@@ -16324,13 +16324,13 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16364,16 +16364,16 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I121" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>477</v>
@@ -16443,13 +16443,13 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16566,7 +16566,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16600,7 +16600,7 @@
         <v>79</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16612,7 +16612,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>248</v>
@@ -16675,7 +16675,7 @@
         <v>79</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16727,16 +16727,16 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16798,7 +16798,7 @@
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16838,13 +16838,13 @@
         <v>78</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>257</v>
@@ -16853,10 +16853,10 @@
         <v>258</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>78</v>
@@ -16917,13 +16917,13 @@
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>78</v>
@@ -16948,10 +16948,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -16963,7 +16963,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>494</v>
@@ -17023,16 +17023,16 @@
         <v>493</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -17063,10 +17063,10 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17142,16 +17142,16 @@
         <v>497</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>78</v>
@@ -17187,7 +17187,7 @@
         <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>78</v>
@@ -17284,7 +17284,7 @@
         <v>411</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>412</v>
@@ -17306,7 +17306,7 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>78</v>
@@ -17318,7 +17318,7 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>248</v>
@@ -17381,7 +17381,7 @@
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17433,16 +17433,16 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17504,7 +17504,7 @@
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17544,13 +17544,13 @@
         <v>78</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>257</v>
@@ -17559,10 +17559,10 @@
         <v>258</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>78</v>
@@ -17623,13 +17623,13 @@
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>78</v>
@@ -17657,16 +17657,16 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>418</v>
@@ -17732,13 +17732,13 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17750,7 +17750,7 @@
         <v>421</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17772,7 +17772,7 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>78</v>
@@ -17784,7 +17784,7 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>248</v>
@@ -17847,7 +17847,7 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17899,16 +17899,16 @@
         <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L134" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17955,7 +17955,7 @@
         <v>78</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>254</v>
@@ -17970,7 +17970,7 @@
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -18004,19 +18004,19 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>511</v>
@@ -18081,19 +18081,19 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>515</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>78</v>
@@ -18121,19 +18121,19 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J136" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>517</v>
@@ -18168,7 +18168,7 @@
         <v>78</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X136" t="s" s="2">
         <v>520</v>
@@ -18198,19 +18198,19 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>78</v>
@@ -18238,16 +18238,16 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I137" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>524</v>
@@ -18315,13 +18315,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18355,7 +18355,7 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>78</v>
@@ -18367,7 +18367,7 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>248</v>
@@ -18430,7 +18430,7 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18482,16 +18482,16 @@
         <v>78</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L139" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18538,7 +18538,7 @@
         <v>78</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE139" t="s" s="2">
         <v>254</v>
@@ -18553,7 +18553,7 @@
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18587,19 +18587,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I140" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>533</v>
@@ -18636,7 +18636,7 @@
         <v>78</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>537</v>
@@ -18666,13 +18666,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18706,16 +18706,16 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>221</v>
@@ -18755,7 +18755,7 @@
         <v>78</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X141" t="s" s="2">
         <v>546</v>
@@ -18785,13 +18785,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18825,19 +18825,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>550</v>
@@ -18904,13 +18904,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18941,22 +18941,22 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F143" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>558</v>
@@ -19021,13 +19021,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19061,19 +19061,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>565</v>
@@ -19136,13 +19136,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19176,16 +19176,16 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I145" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>570</v>
@@ -19253,13 +19253,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19293,19 +19293,19 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I146" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J146" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>577</v>
@@ -19370,19 +19370,19 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>78</v>
@@ -19407,10 +19407,10 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19422,7 +19422,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>424</v>
@@ -19459,7 +19459,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>428</v>
@@ -19489,13 +19489,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19507,7 +19507,7 @@
         <v>431</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>432</v>
@@ -19529,7 +19529,7 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19541,7 +19541,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>435</v>
@@ -19576,7 +19576,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>438</v>
@@ -19606,13 +19606,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19646,7 +19646,7 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19658,7 +19658,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>445</v>
@@ -19695,7 +19695,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>446</v>
@@ -19725,13 +19725,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19777,7 +19777,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>454</v>
@@ -19814,7 +19814,7 @@
         <v>78</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>458</v>
@@ -19850,7 +19850,7 @@
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19884,19 +19884,19 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>463</v>
@@ -19963,13 +19963,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20003,7 +20003,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -20015,7 +20015,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>472</v>
@@ -20080,13 +20080,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20120,16 +20120,16 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I153" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J153" t="s" s="2">
         <v>477</v>
@@ -20199,13 +20199,13 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20322,7 +20322,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20356,7 +20356,7 @@
         <v>79</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20368,7 +20368,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>248</v>
@@ -20431,7 +20431,7 @@
         <v>79</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
@@ -20464,7 +20464,7 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20483,16 +20483,16 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20554,7 +20554,7 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20594,13 +20594,13 @@
         <v>78</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>257</v>
@@ -20609,10 +20609,10 @@
         <v>258</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>78</v>
@@ -20673,13 +20673,13 @@
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>78</v>
@@ -20704,10 +20704,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20719,7 +20719,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>494</v>
@@ -20779,16 +20779,16 @@
         <v>493</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20819,10 +20819,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20898,16 +20898,16 @@
         <v>497</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
@@ -20940,10 +20940,10 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>78</v>
@@ -21040,7 +21040,7 @@
         <v>411</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>412</v>
@@ -21062,7 +21062,7 @@
         <v>79</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>78</v>
@@ -21074,7 +21074,7 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>248</v>
@@ -21137,7 +21137,7 @@
         <v>79</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21189,16 +21189,16 @@
         <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L162" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21260,7 +21260,7 @@
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21300,13 +21300,13 @@
         <v>78</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>257</v>
@@ -21315,10 +21315,10 @@
         <v>258</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>78</v>
@@ -21379,13 +21379,13 @@
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>78</v>
@@ -21422,7 +21422,7 @@
         <v>78</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>418</v>
@@ -21488,13 +21488,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21506,7 +21506,7 @@
         <v>421</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>78</v>
@@ -21525,10 +21525,10 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21540,7 +21540,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>424</v>
@@ -21577,7 +21577,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>428</v>
@@ -21607,13 +21607,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21625,7 +21625,7 @@
         <v>431</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>432</v>
@@ -21647,7 +21647,7 @@
         <v>79</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>78</v>
@@ -21659,7 +21659,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>435</v>
@@ -21694,7 +21694,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>438</v>
@@ -21724,13 +21724,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21776,7 +21776,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>445</v>
@@ -21813,7 +21813,7 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X167" t="s" s="2">
         <v>446</v>
@@ -21843,13 +21843,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21895,7 +21895,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>585</v>
@@ -21932,7 +21932,7 @@
         <v>78</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X168" t="s" s="2">
         <v>458</v>
@@ -21968,7 +21968,7 @@
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22002,19 +22002,19 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J169" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>463</v>
@@ -22081,13 +22081,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22121,7 +22121,7 @@
         <v>79</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>78</v>
@@ -22133,7 +22133,7 @@
         <v>78</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>472</v>
@@ -22198,13 +22198,13 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22235,19 +22235,19 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I171" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J171" t="s" s="2">
         <v>477</v>
@@ -22317,13 +22317,13 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>467</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22440,7 +22440,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22474,7 +22474,7 @@
         <v>79</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>78</v>
@@ -22486,7 +22486,7 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>248</v>
@@ -22549,7 +22549,7 @@
         <v>79</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>78</v>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22601,16 +22601,16 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K174" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>253</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -22672,7 +22672,7 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22712,13 +22712,13 @@
         <v>78</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>257</v>
@@ -22727,10 +22727,10 @@
         <v>258</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>78</v>
@@ -22791,13 +22791,13 @@
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>78</v>
@@ -22822,10 +22822,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22837,7 +22837,7 @@
         <v>78</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K176" t="s" s="2">
         <v>494</v>
@@ -22897,16 +22897,16 @@
         <v>493</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
@@ -22937,10 +22937,10 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>78</v>
@@ -23016,16 +23016,16 @@
         <v>497</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>78</v>
